--- a/relatorio/reports/S PINHEIRO GARCIA/2023/vendas-sem-recebimentos-report.xlsx
+++ b/relatorio/reports/S PINHEIRO GARCIA/2023/vendas-sem-recebimentos-report.xlsx
@@ -33,7 +33,6 @@
     </font>
     <font>
       <name val="Arial"/>
-      <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="14"/>
     </font>
@@ -455,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,10 +523,10 @@
         <v>32.88</v>
       </c>
       <c r="E2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F2" t="n">
         <v>3.1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.02</v>
       </c>
       <c r="G2" t="n">
         <v>31.86</v>
@@ -557,10 +556,10 @@
         <v>65.7</v>
       </c>
       <c r="E3" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F3" t="n">
         <v>1.95</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.28</v>
       </c>
       <c r="G3" t="n">
         <v>64.42</v>
@@ -590,10 +589,10 @@
         <v>104.49</v>
       </c>
       <c r="E4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="F4" t="n">
         <v>3.09</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.23</v>
       </c>
       <c r="G4" t="n">
         <v>101.26</v>
@@ -623,10 +622,10 @@
         <v>59.8</v>
       </c>
       <c r="E5" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.54</v>
       </c>
       <c r="G5" t="n">
         <v>59.26</v>
@@ -637,39 +636,6 @@
         </is>
       </c>
       <c r="I5" t="inlineStr">
-        <is>
-          <t>S PINHEIRO GARCIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>162622</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>44754.72430555556</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="G6" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>DEBITO A VISTA</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
         <is>
           <t>S PINHEIRO GARCIA</t>
         </is>
